--- a/Projeto/GPR/PG2016-1-DRP.xlsx
+++ b/Projeto/GPR/PG2016-1-DRP.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\GitHub\PSW\Projeto\GPR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="987"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
+    <sheet name="DRP" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>PG2016-1 - Documento de Riscos do Projeto (DRP)</t>
   </si>
@@ -77,15 +77,6 @@
     <t>Documento o que é necessário sobre o workflow o mais cedo possível</t>
   </si>
   <si>
-    <t xml:space="preserve">Equipamentos defeituosos </t>
-  </si>
-  <si>
-    <t>Realizar teste ao receber o equipamento, manter monitoramento de prevenção nos equipamentos diariamente.</t>
-  </si>
-  <si>
-    <t>Equipe despreparada para trabalho em grupo</t>
-  </si>
-  <si>
     <t>Estouro de prazo</t>
   </si>
   <si>
@@ -99,15 +90,6 @@
   </si>
   <si>
     <t>Garantir ambiente agradável e confortável para trabalhar, difundir a politica da empresa.</t>
-  </si>
-  <si>
-    <t>Realizar workshop, dinâmicas em grupo.</t>
-  </si>
-  <si>
-    <t>Solicita troca de equipamento, verificar com outras equipe de desenvolvimento disponibilidade de equipamento para empréstimo, verificar possibilidade de adiar tarefa no cronograma.</t>
-  </si>
-  <si>
-    <t>Realizar treinamento e calcular impacto no cronograma.</t>
   </si>
   <si>
     <t>Seguir procedimento descrito em processo com constantes avaliações.</t>
@@ -277,25 +259,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right/>
         <top style="thin">
           <color indexed="64"/>
@@ -386,13 +349,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -410,6 +366,32 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -425,18 +407,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A2:D10" totalsRowShown="0" headerRowDxfId="0" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
-  <autoFilter ref="A2:D10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A2:D8" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A2:D8">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="Risco" dataDxfId="4"/>
-    <tableColumn id="2" name="Nível (A/M/B) Alto/Médio/Baixo" dataDxfId="3"/>
-    <tableColumn id="3" name="Prevenção" dataDxfId="2"/>
-    <tableColumn id="4" name="Mitigação" dataDxfId="1"/>
+    <tableColumn id="1" name="Risco" dataDxfId="3"/>
+    <tableColumn id="2" name="Nível (A/M/B) Alto/Médio/Baixo" dataDxfId="2"/>
+    <tableColumn id="3" name="Prevenção" dataDxfId="1"/>
+    <tableColumn id="4" name="Mitigação" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -739,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -761,9 +743,9 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -783,7 +765,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>6</v>
@@ -825,27 +807,27 @@
         <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -853,38 +835,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Projeto/GPR/PG2016-1-DRP.xlsx
+++ b/Projeto/GPR/PG2016-1-DRP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\GitHub\PSW\Projeto\GPR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Desktop\PSW\Projeto\GPR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -724,7 +724,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -762,7 +762,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>20</v>

--- a/Projeto/GPR/PG2016-1-DRP.xlsx
+++ b/Projeto/GPR/PG2016-1-DRP.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="DRP" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>PG2016-1 - Documento de Riscos do Projeto (DRP)</t>
   </si>
@@ -83,19 +83,10 @@
     <t>Realizar monitoramento do cronograma, treinamento intensivo para equipe de desenvolvimento.</t>
   </si>
   <si>
-    <t xml:space="preserve">A complexidade do sistema, não devidamente percebida nas etapas iniciais </t>
-  </si>
-  <si>
     <t>Documentar atividades, realizar atividades conforme procedimento, garantir ambiente agradável e confortável para trabalhar.</t>
   </si>
   <si>
     <t>Garantir ambiente agradável e confortável para trabalhar, difundir a politica da empresa.</t>
-  </si>
-  <si>
-    <t>Seguir procedimento descrito em processo com constantes avaliações.</t>
-  </si>
-  <si>
-    <t>Realocar recursos humanos e materiais.</t>
   </si>
   <si>
     <t>Risco</t>
@@ -407,8 +398,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A2:D8" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="A2:D8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A2:D7" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A2:D7">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -721,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -745,7 +736,7 @@
     </row>
     <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -765,7 +756,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>6</v>
@@ -807,7 +798,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>16</v>
@@ -825,20 +816,6 @@
       </c>
       <c r="D7" s="6" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
